--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample11/Sample-11.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample11/Sample-11.xlsx
@@ -153,10 +153,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="a30smzhs" xfId="1"/>
-    <cellStyle name="a30smzhs_Alternate" xfId="2"/>
-    <cellStyle name="ec4iuqfy" xfId="3"/>
-    <cellStyle name="ec4iuqfy_Alternate" xfId="4"/>
+    <cellStyle name="hjrybddo" xfId="1"/>
+    <cellStyle name="hjrybddo_Alternate" xfId="2"/>
+    <cellStyle name="qr2b1fod" xfId="3"/>
+    <cellStyle name="qr2b1fod_Alternate" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample11/Sample-11.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample11/Sample-11.xlsx
@@ -153,10 +153,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="hjrybddo" xfId="1"/>
-    <cellStyle name="hjrybddo_Alternate" xfId="2"/>
-    <cellStyle name="qr2b1fod" xfId="3"/>
-    <cellStyle name="qr2b1fod_Alternate" xfId="4"/>
+    <cellStyle name="khi0rkyl" xfId="1"/>
+    <cellStyle name="khi0rkyl_Alternate" xfId="2"/>
+    <cellStyle name="2y1thro1" xfId="3"/>
+    <cellStyle name="2y1thro1_Alternate" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
